--- a/data/trans_dic/Viv_Temp_insuf-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,59; 63,71</t>
+          <t>41,08; 63,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,18; 66,01</t>
+          <t>39,08; 65,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,42; 60,64</t>
+          <t>43,38; 60,66</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,35; 45,62</t>
+          <t>37,14; 45,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,49; 47,17</t>
+          <t>38,3; 47,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,15; 45,2</t>
+          <t>39,31; 45,14</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,81; 35,87</t>
+          <t>23,86; 36,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,35; 39,45</t>
+          <t>26,98; 40,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,86; 35,48</t>
+          <t>26,98; 36,0</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,1; 42,8</t>
+          <t>36,05; 42,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,92; 44,84</t>
+          <t>38,23; 44,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>38,04; 43,0</t>
+          <t>37,76; 42,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Viv_Temp_insuf-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,4%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,69; 64,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>38,47; 60,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>38,81; 58,29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,89%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>52,24%</t>
+          <t>39,52%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>0; 0,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,08; 63,64</t>
+          <t>32,85; 44,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,08; 65,06</t>
+          <t>34,33; 43,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,38; 60,66</t>
+          <t>35,65; 43,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>42,17%</t>
+          <t>31,12%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0; 1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,14; 45,75</t>
+          <t>26,82; 39,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0; 1,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0; 0,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,3; 47,25</t>
+          <t>23,39; 35,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,31; 45,14</t>
+          <t>26,65; 35,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>38,39%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 36,67</t>
+          <t>33,95; 42,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0; 0,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 40,28</t>
+          <t>34,15; 41,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 36,0</t>
+          <t>35,35; 40,88</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>39,51%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>41,42%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>40,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,23</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>36,05; 42,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>38,23; 44,93</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>37,76; 42,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
